--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1rn</t>
   </si>
   <si>
     <t>Il1r2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>65.98578416845849</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H2">
-        <v>65.98578416845849</v>
+        <v>0.177943</v>
       </c>
       <c r="I2">
-        <v>0.3733373393214089</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J2">
-        <v>0.3733373393214089</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.72992909362895</v>
+        <v>0.15683</v>
       </c>
       <c r="N2">
-        <v>1.72992909362895</v>
+        <v>0.47049</v>
       </c>
       <c r="O2">
-        <v>0.0995983794118019</v>
+        <v>0.005895093830118167</v>
       </c>
       <c r="P2">
-        <v>0.0995983794118019</v>
+        <v>0.005909707522044401</v>
       </c>
       <c r="Q2">
-        <v>114.1507277989369</v>
+        <v>0.009302266896666666</v>
       </c>
       <c r="R2">
-        <v>114.1507277989369</v>
+        <v>0.08372040207000001</v>
       </c>
       <c r="S2">
-        <v>0.03718379397032632</v>
+        <v>1.867945823966288E-06</v>
       </c>
       <c r="T2">
-        <v>0.03718379397032632</v>
+        <v>1.875404430925471E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>65.98578416845849</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H3">
-        <v>65.98578416845849</v>
+        <v>0.177943</v>
       </c>
       <c r="I3">
-        <v>0.3733373393214089</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J3">
-        <v>0.3733373393214089</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.56950988732942</v>
+        <v>2.161662333333334</v>
       </c>
       <c r="N3">
-        <v>3.56950988732942</v>
+        <v>6.484987</v>
       </c>
       <c r="O3">
-        <v>0.2055098104203965</v>
+        <v>0.08125487651617787</v>
       </c>
       <c r="P3">
-        <v>0.2055098104203965</v>
+        <v>0.08145630396875631</v>
       </c>
       <c r="Q3">
-        <v>235.5369090124977</v>
+        <v>0.1282175601934445</v>
       </c>
       <c r="R3">
-        <v>235.5369090124977</v>
+        <v>1.153958041741</v>
       </c>
       <c r="S3">
-        <v>0.076724485826798</v>
+        <v>2.57467839595436E-05</v>
       </c>
       <c r="T3">
-        <v>0.076724485826798</v>
+        <v>2.58495894796788E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>65.98578416845849</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H4">
-        <v>65.98578416845849</v>
+        <v>0.177943</v>
       </c>
       <c r="I4">
-        <v>0.3733373393214089</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J4">
-        <v>0.3733373393214089</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.069609630529</v>
+        <v>5.944413999999999</v>
       </c>
       <c r="N4">
-        <v>12.069609630529</v>
+        <v>17.833242</v>
       </c>
       <c r="O4">
-        <v>0.6948918101678017</v>
+        <v>0.2234449932734046</v>
       </c>
       <c r="P4">
-        <v>0.6948918101678017</v>
+        <v>0.2239989040996368</v>
       </c>
       <c r="Q4">
-        <v>796.4226560776347</v>
+        <v>0.3525889534673333</v>
       </c>
       <c r="R4">
-        <v>796.4226560776347</v>
+        <v>3.173300581206</v>
       </c>
       <c r="S4">
-        <v>0.2594290595242846</v>
+        <v>7.080178095534488E-05</v>
       </c>
       <c r="T4">
-        <v>0.2594290595242846</v>
+        <v>7.10844886492087E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>110.759955457791</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H5">
-        <v>110.759955457791</v>
+        <v>0.177943</v>
       </c>
       <c r="I5">
-        <v>0.6266626606785911</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J5">
-        <v>0.6266626606785911</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.72992909362895</v>
+        <v>18.14321433333333</v>
       </c>
       <c r="N5">
-        <v>1.72992909362895</v>
+        <v>54.42964299999999</v>
       </c>
       <c r="O5">
-        <v>0.0995983794118019</v>
+        <v>0.681986551520403</v>
       </c>
       <c r="P5">
-        <v>0.0995983794118019</v>
+        <v>0.6836771677597638</v>
       </c>
       <c r="Q5">
-        <v>191.6068693554792</v>
+        <v>1.076152662705444</v>
       </c>
       <c r="R5">
-        <v>191.6068693554792</v>
+        <v>9.685373964348999</v>
       </c>
       <c r="S5">
-        <v>0.06241458544147559</v>
+        <v>0.0002160973120402684</v>
       </c>
       <c r="T5">
-        <v>0.06241458544147559</v>
+        <v>0.000216960176955709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>110.759955457791</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H6">
-        <v>110.759955457791</v>
+        <v>0.177943</v>
       </c>
       <c r="I6">
-        <v>0.6266626606785911</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J6">
-        <v>0.6266626606785911</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>3.56950988732942</v>
+        <v>0.1973575</v>
       </c>
       <c r="N6">
-        <v>3.56950988732942</v>
+        <v>0.394715</v>
       </c>
       <c r="O6">
-        <v>0.2055098104203965</v>
+        <v>0.007418484859896359</v>
       </c>
       <c r="P6">
-        <v>0.2055098104203965</v>
+        <v>0.004957916649798626</v>
       </c>
       <c r="Q6">
-        <v>395.3587561267511</v>
+        <v>0.01170612854083333</v>
       </c>
       <c r="R6">
-        <v>395.3587561267511</v>
+        <v>0.07023677124500001</v>
       </c>
       <c r="S6">
-        <v>0.1287853245935985</v>
+        <v>2.350654326043657E-06</v>
       </c>
       <c r="T6">
-        <v>0.1287853245935985</v>
+        <v>1.57336024134997E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4718103333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.415431</v>
+      </c>
+      <c r="I7">
+        <v>0.002520468934959191</v>
+      </c>
+      <c r="J7">
+        <v>0.002524275457857229</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.15683</v>
+      </c>
+      <c r="N7">
+        <v>0.47049</v>
+      </c>
+      <c r="O7">
+        <v>0.005895093830118167</v>
+      </c>
+      <c r="P7">
+        <v>0.005909707522044401</v>
+      </c>
+      <c r="Q7">
+        <v>0.07399401457666666</v>
+      </c>
+      <c r="R7">
+        <v>0.66594613119</v>
+      </c>
+      <c r="S7">
+        <v>1.485840086748243E-05</v>
+      </c>
+      <c r="T7">
+        <v>1.491772966101094E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4718103333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.415431</v>
+      </c>
+      <c r="I8">
+        <v>0.002520468934959191</v>
+      </c>
+      <c r="J8">
+        <v>0.002524275457857229</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.161662333333334</v>
+      </c>
+      <c r="N8">
+        <v>6.484987</v>
+      </c>
+      <c r="O8">
+        <v>0.08125487651617787</v>
+      </c>
+      <c r="P8">
+        <v>0.08145630396875631</v>
+      </c>
+      <c r="Q8">
+        <v>1.019894626044111</v>
+      </c>
+      <c r="R8">
+        <v>9.179051634397</v>
+      </c>
+      <c r="S8">
+        <v>0.0002048003920729714</v>
+      </c>
+      <c r="T8">
+        <v>0.0002056181489960899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4718103333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.415431</v>
+      </c>
+      <c r="I9">
+        <v>0.002520468934959191</v>
+      </c>
+      <c r="J9">
+        <v>0.002524275457857229</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.944413999999999</v>
+      </c>
+      <c r="N9">
+        <v>17.833242</v>
+      </c>
+      <c r="O9">
+        <v>0.2234449932734046</v>
+      </c>
+      <c r="P9">
+        <v>0.2239989040996368</v>
+      </c>
+      <c r="Q9">
+        <v>2.804635950811333</v>
+      </c>
+      <c r="R9">
+        <v>25.241723557302</v>
+      </c>
+      <c r="S9">
+        <v>0.0005631861642177818</v>
+      </c>
+      <c r="T9">
+        <v>0.0005654349362056281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.4718103333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.415431</v>
+      </c>
+      <c r="I10">
+        <v>0.002520468934959191</v>
+      </c>
+      <c r="J10">
+        <v>0.002524275457857229</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.14321433333333</v>
+      </c>
+      <c r="N10">
+        <v>54.42964299999999</v>
+      </c>
+      <c r="O10">
+        <v>0.681986551520403</v>
+      </c>
+      <c r="P10">
+        <v>0.6836771677597638</v>
+      </c>
+      <c r="Q10">
+        <v>8.560156002348108</v>
+      </c>
+      <c r="R10">
+        <v>77.04140402113298</v>
+      </c>
+      <c r="S10">
+        <v>0.001718925917167122</v>
+      </c>
+      <c r="T10">
+        <v>0.001725789495673311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>110.759955457791</v>
-      </c>
-      <c r="H7">
-        <v>110.759955457791</v>
-      </c>
-      <c r="I7">
-        <v>0.6266626606785911</v>
-      </c>
-      <c r="J7">
-        <v>0.6266626606785911</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>12.069609630529</v>
-      </c>
-      <c r="N7">
-        <v>12.069609630529</v>
-      </c>
-      <c r="O7">
-        <v>0.6948918101678017</v>
-      </c>
-      <c r="P7">
-        <v>0.6948918101678017</v>
-      </c>
-      <c r="Q7">
-        <v>1336.829425070317</v>
-      </c>
-      <c r="R7">
-        <v>1336.829425070317</v>
-      </c>
-      <c r="S7">
-        <v>0.435462750643517</v>
-      </c>
-      <c r="T7">
-        <v>0.435462750643517</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4718103333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.415431</v>
+      </c>
+      <c r="I11">
+        <v>0.002520468934959191</v>
+      </c>
+      <c r="J11">
+        <v>0.002524275457857229</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.1973575</v>
+      </c>
+      <c r="N11">
+        <v>0.394715</v>
+      </c>
+      <c r="O11">
+        <v>0.007418484859896359</v>
+      </c>
+      <c r="P11">
+        <v>0.004957916649798626</v>
+      </c>
+      <c r="Q11">
+        <v>0.09311530786083332</v>
+      </c>
+      <c r="R11">
+        <v>0.558691847165</v>
+      </c>
+      <c r="S11">
+        <v>1.869806063383386E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.25151473211884E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H12">
+        <v>220.034634</v>
+      </c>
+      <c r="I12">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J12">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.15683</v>
+      </c>
+      <c r="N12">
+        <v>0.47049</v>
+      </c>
+      <c r="O12">
+        <v>0.005895093830118167</v>
+      </c>
+      <c r="P12">
+        <v>0.005909707522044401</v>
+      </c>
+      <c r="Q12">
+        <v>11.50267721674</v>
+      </c>
+      <c r="R12">
+        <v>103.52409495066</v>
+      </c>
+      <c r="S12">
+        <v>0.002309800192804722</v>
+      </c>
+      <c r="T12">
+        <v>0.00231902310043477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H13">
+        <v>220.034634</v>
+      </c>
+      <c r="I13">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J13">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.161662333333334</v>
+      </c>
+      <c r="N13">
+        <v>6.484987</v>
+      </c>
+      <c r="O13">
+        <v>0.08125487651617787</v>
+      </c>
+      <c r="P13">
+        <v>0.08145630396875631</v>
+      </c>
+      <c r="Q13">
+        <v>158.5468601155287</v>
+      </c>
+      <c r="R13">
+        <v>1426.921741039758</v>
+      </c>
+      <c r="S13">
+        <v>0.03183707246261582</v>
+      </c>
+      <c r="T13">
+        <v>0.03196419617636757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H14">
+        <v>220.034634</v>
+      </c>
+      <c r="I14">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J14">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.944413999999999</v>
+      </c>
+      <c r="N14">
+        <v>17.833242</v>
+      </c>
+      <c r="O14">
+        <v>0.2234449932734046</v>
+      </c>
+      <c r="P14">
+        <v>0.2239989040996368</v>
+      </c>
+      <c r="Q14">
+        <v>435.992319611492</v>
+      </c>
+      <c r="R14">
+        <v>3923.930876503428</v>
+      </c>
+      <c r="S14">
+        <v>0.08754963083154427</v>
+      </c>
+      <c r="T14">
+        <v>0.08789921178695308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H15">
+        <v>220.034634</v>
+      </c>
+      <c r="I15">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J15">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.14321433333333</v>
+      </c>
+      <c r="N15">
+        <v>54.42964299999999</v>
+      </c>
+      <c r="O15">
+        <v>0.681986551520403</v>
+      </c>
+      <c r="P15">
+        <v>0.6836771677597638</v>
+      </c>
+      <c r="Q15">
+        <v>1330.711841806185</v>
+      </c>
+      <c r="R15">
+        <v>11976.40657625566</v>
+      </c>
+      <c r="S15">
+        <v>0.267214180738575</v>
+      </c>
+      <c r="T15">
+        <v>0.2682811525546083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H16">
+        <v>220.034634</v>
+      </c>
+      <c r="I16">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J16">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.1973575</v>
+      </c>
+      <c r="N16">
+        <v>0.394715</v>
+      </c>
+      <c r="O16">
+        <v>0.007418484859896359</v>
+      </c>
+      <c r="P16">
+        <v>0.004957916649798626</v>
+      </c>
+      <c r="Q16">
+        <v>14.475161759885</v>
+      </c>
+      <c r="R16">
+        <v>86.85097055931001</v>
+      </c>
+      <c r="S16">
+        <v>0.002906691267942727</v>
+      </c>
+      <c r="T16">
+        <v>0.00194553168630175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>112.468651</v>
+      </c>
+      <c r="H17">
+        <v>337.405953</v>
+      </c>
+      <c r="I17">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J17">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.15683</v>
+      </c>
+      <c r="N17">
+        <v>0.47049</v>
+      </c>
+      <c r="O17">
+        <v>0.005895093830118167</v>
+      </c>
+      <c r="P17">
+        <v>0.005909707522044401</v>
+      </c>
+      <c r="Q17">
+        <v>17.63845853633</v>
+      </c>
+      <c r="R17">
+        <v>158.74612682697</v>
+      </c>
+      <c r="S17">
+        <v>0.003541898478095321</v>
+      </c>
+      <c r="T17">
+        <v>0.003556041087746251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>112.468651</v>
+      </c>
+      <c r="H18">
+        <v>337.405953</v>
+      </c>
+      <c r="I18">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J18">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.161662333333334</v>
+      </c>
+      <c r="N18">
+        <v>6.484987</v>
+      </c>
+      <c r="O18">
+        <v>0.08125487651617787</v>
+      </c>
+      <c r="P18">
+        <v>0.08145630396875631</v>
+      </c>
+      <c r="Q18">
+        <v>243.1192465475124</v>
+      </c>
+      <c r="R18">
+        <v>2188.073218927611</v>
+      </c>
+      <c r="S18">
+        <v>0.04881966797544676</v>
+      </c>
+      <c r="T18">
+        <v>0.04901460227741354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>112.468651</v>
+      </c>
+      <c r="H19">
+        <v>337.405953</v>
+      </c>
+      <c r="I19">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J19">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.944413999999999</v>
+      </c>
+      <c r="N19">
+        <v>17.833242</v>
+      </c>
+      <c r="O19">
+        <v>0.2234449932734046</v>
+      </c>
+      <c r="P19">
+        <v>0.2239989040996368</v>
+      </c>
+      <c r="Q19">
+        <v>668.560223565514</v>
+      </c>
+      <c r="R19">
+        <v>6017.042012089626</v>
+      </c>
+      <c r="S19">
+        <v>0.1342505317845343</v>
+      </c>
+      <c r="T19">
+        <v>0.1347865869194289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>112.468651</v>
+      </c>
+      <c r="H20">
+        <v>337.405953</v>
+      </c>
+      <c r="I20">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J20">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>18.14321433333333</v>
+      </c>
+      <c r="N20">
+        <v>54.42964299999999</v>
+      </c>
+      <c r="O20">
+        <v>0.681986551520403</v>
+      </c>
+      <c r="P20">
+        <v>0.6836771677597638</v>
+      </c>
+      <c r="Q20">
+        <v>2040.542840873864</v>
+      </c>
+      <c r="R20">
+        <v>18364.88556786478</v>
+      </c>
+      <c r="S20">
+        <v>0.4097521088757924</v>
+      </c>
+      <c r="T20">
+        <v>0.4113882269535167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>112.468651</v>
+      </c>
+      <c r="H21">
+        <v>337.405953</v>
+      </c>
+      <c r="I21">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J21">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.1973575</v>
+      </c>
+      <c r="N21">
+        <v>0.394715</v>
+      </c>
+      <c r="O21">
+        <v>0.007418484859896359</v>
+      </c>
+      <c r="P21">
+        <v>0.004957916649798626</v>
+      </c>
+      <c r="Q21">
+        <v>22.1965317897325</v>
+      </c>
+      <c r="R21">
+        <v>133.179190738395</v>
+      </c>
+      <c r="S21">
+        <v>0.004457184396420948</v>
+      </c>
+      <c r="T21">
+        <v>0.002983321128928907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.8468355</v>
+      </c>
+      <c r="H22">
+        <v>1.693671</v>
+      </c>
+      <c r="I22">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J22">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.15683</v>
+      </c>
+      <c r="N22">
+        <v>0.47049</v>
+      </c>
+      <c r="O22">
+        <v>0.005895093830118167</v>
+      </c>
+      <c r="P22">
+        <v>0.005909707522044401</v>
+      </c>
+      <c r="Q22">
+        <v>0.132809211465</v>
+      </c>
+      <c r="R22">
+        <v>0.79685526879</v>
+      </c>
+      <c r="S22">
+        <v>2.666881252667545E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.785019977144351E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.8468355</v>
+      </c>
+      <c r="H23">
+        <v>1.693671</v>
+      </c>
+      <c r="I23">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J23">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.161662333333334</v>
+      </c>
+      <c r="N23">
+        <v>6.484987</v>
+      </c>
+      <c r="O23">
+        <v>0.08125487651617787</v>
+      </c>
+      <c r="P23">
+        <v>0.08145630396875631</v>
+      </c>
+      <c r="Q23">
+        <v>1.8305724028795</v>
+      </c>
+      <c r="R23">
+        <v>10.983434417277</v>
+      </c>
+      <c r="S23">
+        <v>0.0003675889020827807</v>
+      </c>
+      <c r="T23">
+        <v>0.0002460377764994243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.8468355</v>
+      </c>
+      <c r="H24">
+        <v>1.693671</v>
+      </c>
+      <c r="I24">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J24">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.944413999999999</v>
+      </c>
+      <c r="N24">
+        <v>17.833242</v>
+      </c>
+      <c r="O24">
+        <v>0.2234449932734046</v>
+      </c>
+      <c r="P24">
+        <v>0.2239989040996368</v>
+      </c>
+      <c r="Q24">
+        <v>5.033940801896999</v>
+      </c>
+      <c r="R24">
+        <v>30.203644811382</v>
+      </c>
+      <c r="S24">
+        <v>0.001010842712152936</v>
+      </c>
+      <c r="T24">
+        <v>0.0006765859683999591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.8468355</v>
+      </c>
+      <c r="H25">
+        <v>1.693671</v>
+      </c>
+      <c r="I25">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J25">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>18.14321433333333</v>
+      </c>
+      <c r="N25">
+        <v>54.42964299999999</v>
+      </c>
+      <c r="O25">
+        <v>0.681986551520403</v>
+      </c>
+      <c r="P25">
+        <v>0.6836771677597638</v>
+      </c>
+      <c r="Q25">
+        <v>15.3643179815755</v>
+      </c>
+      <c r="R25">
+        <v>92.18590788945298</v>
+      </c>
+      <c r="S25">
+        <v>0.003085238676828142</v>
+      </c>
+      <c r="T25">
+        <v>0.002065038579009866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.8468355</v>
+      </c>
+      <c r="H26">
+        <v>1.693671</v>
+      </c>
+      <c r="I26">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J26">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.1973575</v>
+      </c>
+      <c r="N26">
+        <v>0.394715</v>
+      </c>
+      <c r="O26">
+        <v>0.007418484859896359</v>
+      </c>
+      <c r="P26">
+        <v>0.004957916649798626</v>
+      </c>
+      <c r="Q26">
+        <v>0.16712933719125</v>
+      </c>
+      <c r="R26">
+        <v>0.6685173487649999</v>
+      </c>
+      <c r="S26">
+        <v>3.356048057280718E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.49753270054312E-05</v>
       </c>
     </row>
   </sheetData>
